--- a/Membership-List.xlsx
+++ b/Membership-List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t>First Name</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Snape</t>
   </si>
   <si>
-    <t>Anakin</t>
-  </si>
-  <si>
     <t>Obi-Wan</t>
   </si>
   <si>
@@ -228,6 +225,12 @@
   </si>
   <si>
     <t>Imperial Senate</t>
+  </si>
+  <si>
+    <t>Darth</t>
+  </si>
+  <si>
+    <t>Vader</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,12 +622,12 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -633,15 +636,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -650,12 +653,12 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -664,15 +667,15 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -681,15 +684,15 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -698,12 +701,12 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -712,12 +715,12 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -726,46 +729,46 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -774,15 +777,15 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -791,29 +794,29 @@
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
@@ -822,46 +825,46 @@
         <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
@@ -870,38 +873,38 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
         <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
